--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Source/my-cli-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{099CFC28-F520-754A-83AB-F6C37AF5FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE197565-D322-A84E-8397-76ED631D7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{253DE04B-6921-F94F-A23C-A907349A208E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,13 @@
   </si>
   <si>
     <t>Controls Reference</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>The application should allow logout of the application
+as well as selecting to logout og the Okta login server.</t>
   </si>
 </sst>
 </file>
@@ -98,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9B2A64-8169-2C45-9E9E-737E3970049D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,6 +482,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Source/my-cli-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE197565-D322-A84E-8397-76ED631D7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432F962-9DE4-CD4F-BDBE-F2DB87CC9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{253DE04B-6921-F94F-A23C-A907349A208E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>The application should use the NIST instance of Okta for athentication.</t>
-  </si>
-  <si>
-    <t>Controls Reference</t>
   </si>
   <si>
     <t>Logout</t>
@@ -70,6 +67,15 @@
   <si>
     <t>The application should allow logout of the application
 as well as selecting to logout og the Okta login server.</t>
+  </si>
+  <si>
+    <t>AC-11, AC-12</t>
+  </si>
+  <si>
+    <t>IA-2</t>
+  </si>
+  <si>
+    <t>Controls_Reference</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -467,6 +473,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -481,6 +490,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -490,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
